--- a/data/trans_dic/P21_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 18,68</t>
+          <t>10,17; 19,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,44; 34,59</t>
+          <t>23,33; 34,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,39; 40,91</t>
+          <t>28,91; 41,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,45; 26,84</t>
+          <t>16,46; 26,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,67; 42,51</t>
+          <t>30,77; 41,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,18; 44,29</t>
+          <t>34,83; 44,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,25; 21,33</t>
+          <t>14,94; 21,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,46; 36,28</t>
+          <t>28,46; 36,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,42; 40,88</t>
+          <t>33,05; 40,65</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,14; 19,18</t>
+          <t>12,05; 18,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,18; 30,37</t>
+          <t>22,03; 29,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,25; 20,14</t>
+          <t>13,2; 20,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 19,11</t>
+          <t>11,2; 19,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,86; 29,36</t>
+          <t>21,69; 29,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,15; 42,59</t>
+          <t>33,54; 42,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,27; 24,7</t>
+          <t>17,73; 24,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,13; 23,58</t>
+          <t>17,23; 23,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,01; 23,06</t>
+          <t>18,03; 23,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,09; 34,95</t>
+          <t>29,22; 35,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,52; 21,36</t>
+          <t>16,33; 21,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,3</t>
+          <t>15,4; 20,52</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 26,57</t>
+          <t>17,2; 26,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,9; 28,25</t>
+          <t>19,03; 29,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,88; 15,85</t>
+          <t>8,52; 15,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,74; 27,8</t>
+          <t>18,79; 27,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,28; 30,93</t>
+          <t>21,26; 30,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,52; 33,71</t>
+          <t>23,54; 33,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 18,44</t>
+          <t>10,57; 18,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,92; 36,43</t>
+          <t>27,82; 36,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,37; 27,15</t>
+          <t>20,48; 26,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,59; 29,58</t>
+          <t>22,69; 29,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,39; 15,73</t>
+          <t>10,81; 16,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,9; 31,47</t>
+          <t>24,86; 31,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 25,28</t>
+          <t>16,7; 25,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,61; 30,5</t>
+          <t>23,59; 30,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,75; 31,86</t>
+          <t>22,01; 31,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,48; 31,95</t>
+          <t>18,77; 31,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,7; 32,2</t>
+          <t>23,62; 32,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,56; 35,65</t>
+          <t>28,33; 35,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,43; 37,62</t>
+          <t>27,47; 37,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,14; 28,51</t>
+          <t>19,48; 28,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,47; 27,4</t>
+          <t>21,29; 27,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,99; 32,35</t>
+          <t>27,04; 32,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,04; 33,1</t>
+          <t>26,29; 33,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,68; 28,06</t>
+          <t>20,3; 27,88</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,97; 22,63</t>
+          <t>12,61; 22,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,31; 22,75</t>
+          <t>12,1; 22,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,21; 17,25</t>
+          <t>8,53; 17,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 15,22</t>
+          <t>6,11; 14,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 26,94</t>
+          <t>14,92; 26,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,61; 42,66</t>
+          <t>29,9; 42,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,94; 18,64</t>
+          <t>9,63; 19,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,84</t>
+          <t>3,23; 7,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,02; 22,68</t>
+          <t>15,07; 22,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,86; 31,08</t>
+          <t>22,26; 31,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,07; 16,72</t>
+          <t>10,25; 16,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,75</t>
+          <t>5,29; 10,23</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,83; 27,49</t>
+          <t>16,84; 27,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,05; 29,27</t>
+          <t>18,37; 29,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,38; 27,33</t>
+          <t>17,07; 27,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,26; 30,79</t>
+          <t>21,15; 31,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,03; 37,1</t>
+          <t>26,04; 37,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,88; 40,32</t>
+          <t>28,87; 40,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,24; 33,56</t>
+          <t>22,59; 34,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,91; 34,4</t>
+          <t>25,45; 34,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,79; 30,48</t>
+          <t>23,21; 30,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,17; 32,81</t>
+          <t>25,2; 32,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,77; 29,5</t>
+          <t>21,36; 28,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,44; 31,24</t>
+          <t>24,59; 30,99</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,9; 21,58</t>
+          <t>15,08; 21,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,9; 25,93</t>
+          <t>18,81; 25,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 14,25</t>
+          <t>9,15; 14,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,93; 30,72</t>
+          <t>22,73; 31,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,91; 29,79</t>
+          <t>23,14; 29,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,47; 30,72</t>
+          <t>23,44; 30,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,47</t>
+          <t>15,17; 21,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,04; 63,37</t>
+          <t>34,12; 64,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,0; 24,68</t>
+          <t>20,16; 25,06</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,19; 27,28</t>
+          <t>22,57; 26,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,95; 16,8</t>
+          <t>12,84; 16,75</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,36; 53,4</t>
+          <t>30,48; 55,17</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,88; 16,12</t>
+          <t>11,05; 16,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,35</t>
+          <t>7,07; 11,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,91; 15,98</t>
+          <t>11,02; 16,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,67; 15,07</t>
+          <t>9,43; 15,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,47; 22,35</t>
+          <t>16,5; 22,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,57</t>
+          <t>10,67; 15,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,73; 19,97</t>
+          <t>14,77; 20,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,42; 18,24</t>
+          <t>13,68; 18,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,53; 18,2</t>
+          <t>14,65; 18,52</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,39; 12,79</t>
+          <t>9,56; 12,85</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13,52; 17,11</t>
+          <t>13,51; 17,33</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,15; 15,88</t>
+          <t>12,06; 15,78</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,89; 18,49</t>
+          <t>15,81; 18,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,09; 22,01</t>
+          <t>19,21; 22,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,53; 18,05</t>
+          <t>15,26; 17,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,64; 21,79</t>
+          <t>18,69; 21,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,88; 25,74</t>
+          <t>22,84; 25,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,2; 29,26</t>
+          <t>26,16; 29,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,17; 23,0</t>
+          <t>20,09; 23,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>24,3; 34,11</t>
+          <t>24,34; 34,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,85</t>
+          <t>19,78; 21,83</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>23,18; 25,29</t>
+          <t>23,19; 25,22</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,27; 20,22</t>
+          <t>18,18; 20,07</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>22,27; 27,86</t>
+          <t>22,11; 27,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,17; 19,1</t>
+          <t>10,73; 18,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,33; 34,29</t>
+          <t>23,02; 33,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,46; 26,76</t>
+          <t>16,44; 26,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,77; 41,98</t>
+          <t>30,99; 41,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,94; 21,43</t>
+          <t>14,84; 21,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,46; 36,17</t>
+          <t>28,5; 36,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,05; 18,89</t>
+          <t>12,37; 19,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,03; 29,94</t>
+          <t>22,18; 30,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,2; 20,21</t>
+          <t>13,28; 20,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,69; 29,27</t>
+          <t>21,89; 29,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,54; 42,73</t>
+          <t>33,7; 42,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,73; 24,9</t>
+          <t>17,74; 25,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,03; 23,26</t>
+          <t>17,88; 23,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,22; 35,02</t>
+          <t>29,25; 35,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,33; 21,62</t>
+          <t>16,68; 21,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,2; 26,4</t>
+          <t>17,21; 26,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,03; 29,14</t>
+          <t>19,27; 29,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,61</t>
+          <t>8,56; 15,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,26; 30,56</t>
+          <t>20,9; 30,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,54; 33,08</t>
+          <t>23,43; 33,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,81</t>
+          <t>10,75; 18,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,48; 26,96</t>
+          <t>20,01; 27,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,69; 29,33</t>
+          <t>22,83; 29,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,07</t>
+          <t>10,73; 15,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,7; 25,11</t>
+          <t>16,74; 25,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,59; 30,68</t>
+          <t>23,72; 30,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,01; 31,42</t>
+          <t>22,05; 31,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,62; 32,74</t>
+          <t>23,62; 32,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,33; 35,34</t>
+          <t>28,18; 35,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,47; 37,54</t>
+          <t>28,04; 37,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,29; 27,6</t>
+          <t>21,25; 27,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,04; 32,15</t>
+          <t>26,86; 32,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,29; 33,23</t>
+          <t>25,59; 32,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,61; 22,37</t>
+          <t>12,6; 22,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,1; 22,91</t>
+          <t>12,48; 23,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 17,79</t>
+          <t>8,72; 17,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,92; 26,3</t>
+          <t>14,94; 26,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,9; 42,54</t>
+          <t>29,43; 43,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,63; 19,24</t>
+          <t>9,83; 19,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 22,59</t>
+          <t>15,24; 22,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,26; 31,03</t>
+          <t>22,65; 31,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,25; 16,42</t>
+          <t>10,37; 16,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,84; 27,18</t>
+          <t>16,62; 26,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,37; 29,58</t>
+          <t>18,36; 28,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,07; 27,05</t>
+          <t>17,16; 27,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,04; 37,43</t>
+          <t>26,08; 37,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,87; 40,24</t>
+          <t>28,54; 40,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,59; 34,15</t>
+          <t>22,49; 34,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,21; 30,94</t>
+          <t>23,16; 30,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,2; 32,91</t>
+          <t>25,15; 33,15</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,36; 28,99</t>
+          <t>21,48; 29,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,08; 21,34</t>
+          <t>14,94; 21,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,81; 25,82</t>
+          <t>18,69; 25,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,15; 14,61</t>
+          <t>9,02; 14,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,14; 29,89</t>
+          <t>23,05; 30,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,44; 30,49</t>
+          <t>23,5; 30,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,17; 21,38</t>
+          <t>15,44; 21,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,16; 25,06</t>
+          <t>19,87; 24,64</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,57; 26,99</t>
+          <t>22,15; 26,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,84; 16,75</t>
+          <t>13,07; 17,09</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,05; 16,14</t>
+          <t>11,09; 16,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,07; 11,5</t>
+          <t>6,71; 11,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,02; 16,0</t>
+          <t>10,98; 15,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,5; 22,36</t>
+          <t>16,51; 22,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,67; 15,62</t>
+          <t>10,59; 15,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,77; 20,28</t>
+          <t>14,63; 20,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,65; 18,52</t>
+          <t>14,74; 18,5</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,56; 12,85</t>
+          <t>9,58; 12,85</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13,51; 17,33</t>
+          <t>13,56; 17,3</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,81; 18,47</t>
+          <t>15,87; 18,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,21; 22,08</t>
+          <t>19,25; 22,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,26; 17,99</t>
+          <t>15,52; 18,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,84; 25,77</t>
+          <t>22,87; 25,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,16; 29,22</t>
+          <t>26,05; 29,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,09; 23,0</t>
+          <t>20,16; 23,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,83</t>
+          <t>19,73; 21,89</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>23,19; 25,22</t>
+          <t>23,05; 25,21</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,18; 20,07</t>
+          <t>18,2; 20,13</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P21_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,73; 18,71</t>
+          <t>10,65; 18,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,02; 33,77</t>
+          <t>23,44; 34,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,91; 41,11</t>
+          <t>28,39; 40,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,44; 26,86</t>
+          <t>16,45; 26,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,99; 41,67</t>
+          <t>30,67; 42,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,83; 44,08</t>
+          <t>35,18; 44,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,84; 21,28</t>
+          <t>14,25; 21,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,5; 36,65</t>
+          <t>28,46; 36,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,05; 40,65</t>
+          <t>33,42; 40,88</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,37; 19,01</t>
+          <t>12,14; 19,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,52 +874,52 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,28; 20,15</t>
+          <t>13,25; 20,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,2; 19,54</t>
+          <t>11,31; 19,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,89; 29,37</t>
+          <t>21,86; 29,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,7; 42,37</t>
+          <t>34,15; 42,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,74; 25,01</t>
+          <t>17,27; 24,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,23; 23,49</t>
+          <t>17,13; 23,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,88; 23,09</t>
+          <t>18,01; 23,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,25; 35,13</t>
+          <t>29,09; 34,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 21,59</t>
+          <t>16,52; 21,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,4; 20,52</t>
+          <t>15,24; 20,3</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 26,33</t>
+          <t>17,1; 26,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,27; 29,04</t>
+          <t>18,9; 28,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 15,47</t>
+          <t>8,88; 15,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,79; 27,28</t>
+          <t>18,74; 27,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,9; 30,61</t>
+          <t>21,28; 30,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,43; 33,54</t>
+          <t>23,52; 33,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,75; 18,32</t>
+          <t>10,79; 18,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,82; 36,84</t>
+          <t>27,92; 36,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,01; 27,03</t>
+          <t>20,37; 27,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,83; 29,55</t>
+          <t>22,59; 29,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,73; 15,75</t>
+          <t>10,39; 15,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,86; 31,03</t>
+          <t>24,9; 31,47</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,74; 25,01</t>
+          <t>16,68; 25,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,72; 30,87</t>
+          <t>23,61; 30,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,05; 31,58</t>
+          <t>21,75; 31,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,77; 31,64</t>
+          <t>19,48; 31,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,62; 32,41</t>
+          <t>23,7; 32,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,18; 35,47</t>
+          <t>28,56; 35,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,04; 37,55</t>
+          <t>27,43; 37,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,48; 28,1</t>
+          <t>19,14; 28,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,25; 27,66</t>
+          <t>21,47; 27,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,86; 32,33</t>
+          <t>26,99; 32,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,59; 32,75</t>
+          <t>26,04; 33,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,3; 27,88</t>
+          <t>20,68; 28,06</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,6; 22,92</t>
+          <t>11,97; 22,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 23,62</t>
+          <t>12,31; 22,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,72; 17,98</t>
+          <t>8,21; 17,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,11; 14,39</t>
+          <t>5,75; 15,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,94; 26,08</t>
+          <t>14,68; 26,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,43; 43,15</t>
+          <t>29,61; 42,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,83; 19,19</t>
+          <t>9,94; 18,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 7,02</t>
+          <t>3,09; 6,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,24; 22,94</t>
+          <t>15,02; 22,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,65; 31,29</t>
+          <t>22,86; 31,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,37; 16,82</t>
+          <t>10,07; 16,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,29; 10,23</t>
+          <t>5,29; 9,75</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,62; 26,69</t>
+          <t>16,83; 27,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,36; 28,66</t>
+          <t>19,05; 29,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,16; 27,1</t>
+          <t>17,38; 27,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,15; 31,0</t>
+          <t>21,26; 30,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,08; 37,08</t>
+          <t>26,03; 37,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,54; 40,23</t>
+          <t>28,88; 40,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,49; 34,12</t>
+          <t>22,24; 33,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,45; 34,09</t>
+          <t>24,91; 34,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,16; 30,72</t>
+          <t>22,79; 30,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,15; 33,15</t>
+          <t>25,17; 32,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,48; 29,17</t>
+          <t>21,77; 29,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,59; 30,99</t>
+          <t>24,44; 31,24</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,94; 21,42</t>
+          <t>14,9; 21,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,69; 25,47</t>
+          <t>18,9; 25,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,02; 14,33</t>
+          <t>8,95; 14,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,73; 31,07</t>
+          <t>22,93; 30,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,05; 30,1</t>
+          <t>22,91; 29,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,5; 30,25</t>
+          <t>23,47; 30,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,44; 21,19</t>
+          <t>15,48; 21,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,12; 64,81</t>
+          <t>34,04; 63,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,87; 24,64</t>
+          <t>20,0; 24,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,15; 26,99</t>
+          <t>22,19; 27,28</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,07; 17,09</t>
+          <t>12,95; 16,8</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,48; 55,17</t>
+          <t>30,36; 53,4</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,09; 16,24</t>
+          <t>10,88; 16,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,71; 11,19</t>
+          <t>6,86; 11,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,98; 15,96</t>
+          <t>10,91; 15,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,43; 15,11</t>
+          <t>9,67; 15,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,51; 22,43</t>
+          <t>16,47; 22,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,53</t>
+          <t>10,59; 15,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,63; 20,0</t>
+          <t>14,73; 19,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,68; 18,52</t>
+          <t>13,42; 18,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,74; 18,5</t>
+          <t>14,53; 18,2</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,58; 12,85</t>
+          <t>9,39; 12,79</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13,56; 17,3</t>
+          <t>13,52; 17,11</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,06; 15,78</t>
+          <t>12,15; 15,88</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,87; 18,54</t>
+          <t>15,89; 18,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,25; 22,06</t>
+          <t>19,09; 22,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,52; 18,01</t>
+          <t>15,53; 18,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,69; 21,94</t>
+          <t>18,64; 21,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,87; 25,96</t>
+          <t>22,88; 25,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,05; 29,03</t>
+          <t>26,2; 29,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,16; 23,01</t>
+          <t>20,17; 23,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>24,34; 34,24</t>
+          <t>24,3; 34,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,73; 21,89</t>
+          <t>19,78; 21,85</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>23,05; 25,21</t>
+          <t>23,18; 25,29</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,2; 20,13</t>
+          <t>18,27; 20,22</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>22,11; 27,59</t>
+          <t>22,27; 27,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>34,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>36,67%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,37; 39,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,39; 40,91</t>
+          <t>27,76; 41,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,0; 45,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,18; 44,29</t>
+          <t>34,88; 44,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,67; 40,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,42; 40,88</t>
+          <t>32,72; 40,87</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>17,6%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 19,11</t>
+          <t>11,38; 19,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,13; 23,58</t>
+          <t>17,04; 23,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,3</t>
+          <t>15,03; 20,36</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>22,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>27,68%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,74; 27,8</t>
+          <t>18,57; 27,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,92; 36,43</t>
+          <t>27,84; 36,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,9; 31,47</t>
+          <t>24,69; 31,3</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>21,42%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,61; 30,5</t>
+          <t>17,59; 26,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,48; 31,95</t>
+          <t>19,08; 31,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,56; 35,65</t>
+          <t>22,6; 31,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,14; 28,51</t>
+          <t>11,96; 25,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,99; 32,35</t>
+          <t>20,97; 27,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,68; 28,06</t>
+          <t>15,53; 25,73</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,05%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 15,22</t>
+          <t>5,65; 14,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,84</t>
+          <t>3,12; 6,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,75</t>
+          <t>5,25; 9,58</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>25,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>27,45%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,26; 30,79</t>
+          <t>21,08; 30,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,91; 34,4</t>
+          <t>24,74; 34,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,44; 31,24</t>
+          <t>24,25; 31,1</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>50,71%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>40,56%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,93; 30,72</t>
+          <t>22,86; 31,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,04; 63,37</t>
+          <t>33,79; 74,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,36; 53,4</t>
+          <t>30,11; 64,37</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>12,23%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,67; 15,07</t>
+          <t>4,36; 13,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,42; 18,24</t>
+          <t>13,34; 17,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,15; 15,88</t>
+          <t>7,18; 14,88</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>24,23%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,64; 21,79</t>
+          <t>15,12; 21,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>24,3; 34,11</t>
+          <t>23,93; 41,72</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>22,27; 27,86</t>
+          <t>21,41; 30,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 18,68</t>
+          <t>11,11; 19,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,37; 39,63</t>
+          <t>29,11; 40,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,44; 34,59</t>
+          <t>23,17; 34,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,76; 41,17</t>
+          <t>28,16; 41,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,45; 26,84</t>
+          <t>16,77; 27,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,0; 45,43</t>
+          <t>33,22; 45,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,67; 42,51</t>
+          <t>31,54; 42,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,88; 44,18</t>
+          <t>34,29; 44,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,25; 21,33</t>
+          <t>14,85; 21,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,67; 40,92</t>
+          <t>32,51; 40,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,46; 36,28</t>
+          <t>28,36; 36,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,72; 40,87</t>
+          <t>32,33; 40,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,14; 19,18</t>
+          <t>12,18; 19,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,18; 30,37</t>
+          <t>22,07; 29,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,25; 20,14</t>
+          <t>13,52; 20,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 19,66</t>
+          <t>11,82; 20,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,86; 29,36</t>
+          <t>21,31; 29,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,15; 42,59</t>
+          <t>33,72; 42,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,27; 24,7</t>
+          <t>17,63; 25,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,04; 23,44</t>
+          <t>17,23; 23,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,01; 23,06</t>
+          <t>17,93; 23,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,09; 34,95</t>
+          <t>29,19; 35,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,52; 21,36</t>
+          <t>16,19; 21,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 20,36</t>
+          <t>15,09; 20,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 26,57</t>
+          <t>17,2; 26,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,9; 28,25</t>
+          <t>19,14; 28,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,88; 15,85</t>
+          <t>8,76; 15,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,57; 27,71</t>
+          <t>18,42; 27,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,28; 30,93</t>
+          <t>21,09; 30,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,52; 33,71</t>
+          <t>23,24; 33,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,79; 18,44</t>
+          <t>10,7; 18,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,84; 36,41</t>
+          <t>28,22; 36,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,37; 27,15</t>
+          <t>20,26; 26,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,59; 29,58</t>
+          <t>22,4; 29,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10,39; 15,73</t>
+          <t>10,73; 15,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,69; 31,3</t>
+          <t>24,8; 30,85</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 25,28</t>
+          <t>16,96; 25,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 26,35</t>
+          <t>17,15; 26,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,75; 31,86</t>
+          <t>22,18; 31,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 31,88</t>
+          <t>19,01; 31,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,7; 32,2</t>
+          <t>23,49; 32,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,6; 31,76</t>
+          <t>22,73; 32,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,43; 37,62</t>
+          <t>27,38; 37,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,96; 25,92</t>
+          <t>11,71; 25,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,47; 27,4</t>
+          <t>21,54; 27,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,97; 27,56</t>
+          <t>21,09; 27,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,04; 33,1</t>
+          <t>25,9; 33,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,53; 25,73</t>
+          <t>15,53; 26,08</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,97; 22,63</t>
+          <t>12,34; 22,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,31; 22,75</t>
+          <t>12,55; 22,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,21; 17,25</t>
+          <t>8,84; 18,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 14,85</t>
+          <t>6,09; 14,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,68; 26,94</t>
+          <t>14,79; 26,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,61; 42,66</t>
+          <t>30,03; 43,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,94; 18,64</t>
+          <t>9,6; 18,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,87</t>
+          <t>3,2; 7,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,02; 22,68</t>
+          <t>15,08; 22,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,86; 31,08</t>
+          <t>22,55; 31,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,07; 16,72</t>
+          <t>10,42; 16,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 9,58</t>
+          <t>5,17; 9,44</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,83; 27,49</t>
+          <t>16,98; 26,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,05; 29,27</t>
+          <t>18,77; 28,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,38; 27,33</t>
+          <t>17,46; 27,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,08; 30,65</t>
+          <t>20,86; 30,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,03; 37,1</t>
+          <t>26,28; 37,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,88; 40,32</t>
+          <t>28,5; 39,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,24; 33,56</t>
+          <t>22,87; 33,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,74; 34,24</t>
+          <t>24,87; 34,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,79; 30,48</t>
+          <t>22,72; 30,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,17; 32,81</t>
+          <t>25,46; 32,99</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,77; 29,5</t>
+          <t>21,25; 28,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>24,25; 31,1</t>
+          <t>24,16; 30,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,9; 21,58</t>
+          <t>14,85; 21,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,9; 25,93</t>
+          <t>19,06; 25,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 14,25</t>
+          <t>8,96; 14,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,86; 31,1</t>
+          <t>22,5; 31,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,91; 29,79</t>
+          <t>23,11; 30,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,47; 30,72</t>
+          <t>23,53; 30,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,47</t>
+          <t>15,2; 21,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,79; 74,08</t>
+          <t>33,97; 79,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,0; 24,68</t>
+          <t>20,03; 24,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,19; 27,28</t>
+          <t>22,37; 27,23</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,95; 16,8</t>
+          <t>12,93; 16,92</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,11; 64,37</t>
+          <t>30,0; 63,07</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10,88; 16,12</t>
+          <t>10,89; 16,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,35</t>
+          <t>6,89; 11,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,91; 15,98</t>
+          <t>11,17; 16,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,36; 13,79</t>
+          <t>3,72; 13,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,47; 22,35</t>
+          <t>16,42; 22,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,57</t>
+          <t>10,53; 15,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,73; 19,97</t>
+          <t>14,79; 20,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,34; 17,96</t>
+          <t>13,34; 18,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,53; 18,2</t>
+          <t>14,82; 18,53</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,39; 12,79</t>
+          <t>9,48; 12,74</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13,52; 17,11</t>
+          <t>13,49; 17,16</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,18; 14,88</t>
+          <t>7,4; 15,05</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,89; 18,49</t>
+          <t>15,91; 18,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,09; 22,01</t>
+          <t>19,24; 22,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,53; 18,05</t>
+          <t>15,33; 17,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,12; 21,75</t>
+          <t>15,24; 21,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,88; 25,74</t>
+          <t>22,94; 25,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,2; 29,26</t>
+          <t>26,08; 29,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,17; 23,0</t>
+          <t>20,07; 22,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>23,93; 41,72</t>
+          <t>23,87; 43,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,85</t>
+          <t>19,81; 21,78</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>23,18; 25,29</t>
+          <t>23,15; 25,26</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>18,27; 20,22</t>
+          <t>18,17; 20,13</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>21,41; 30,99</t>
+          <t>21,15; 32,19</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado un servicio de urgencias en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39460</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>101010</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>83698</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>106964</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>56095</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>110764</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>104120</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>113473</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>95555</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>211774</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>187818</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>220436</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>30343; 52488</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>85587; 118959</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>68060; 101700</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>87706; 128697</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>43743; 70592</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>95045; 131373</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>90497; 121401</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>99314; 127984</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>79285; 114182</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>188586; 236478</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>164666; 211590</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>194356; 245698</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>75472</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>131306</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>83667</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>78622</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>128019</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>199201</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>103078</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>203492</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>330508</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>193667</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>181700</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>60064; 95428</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>111554; 151110</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>67929; 101404</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>61267; 105220</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>107387; 147912</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>176635; 224646</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>92219; 131811</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>88594; 120496</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>178765; 229501</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>300417; 360434</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>166038; 217394</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>155793; 209107</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>68469</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>76522</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>37265</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>71809</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>85961</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>96258</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>47283</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>112167</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>154430</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>172780</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>84548</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>183976</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>54828; 84954</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>62018; 91414</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>27432; 49015</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>58202; 87309</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>70724; 102754</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>79261; 113665</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35712; 61193</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>98368; 128865</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>132553; 176313</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>148952; 196020</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>69388; 102782</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>164804; 205033</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>74606</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>80562</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>97356</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>76327</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>103759</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>104667</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>125414</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>92154</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>178365</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>185228</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>222770</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>168481</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>60831; 90782</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>64137; 98584</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>81417; 115068</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>59091; 96570</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>87258; 121544</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>88194; 124892</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>106045; 144527</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>55717; 119741</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>157301; 200884</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>160736; 208545</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>195391; 249127</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>122141; 205150</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>34772</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>36867</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26355</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>17208</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>42041</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>78914</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30534</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10092</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>76813</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>115781</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>56889</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>27300</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>25086; 45868</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>26678; 48509</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18467; 38173</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>10883; 25361</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>30714; 54265</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>65942; 94987</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20893; 40455</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6685; 14779</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>61976; 92937</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>97447; 135348</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>44462; 71509</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>20028; 36573</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>58539</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>64279</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>57743</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>68786</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>87395</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>96148</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>76374</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>75774</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>145934</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>160428</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>134117</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>144560</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>45977; 72811</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>51437; 79160</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>45937; 72668</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>56252; 81932</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>72847; 103121</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>79805; 111185</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>62468; 91868</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>63926; 87667</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>124496; 167675</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>141078; 182789</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>113944; 154386</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>127261; 163022</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>110211</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>146687</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>75317</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>167436</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>168706</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>186931</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>124978</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>428512</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>278917</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>333618</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>200295</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>595948</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>91223; 129851</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>126305; 169513</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>58801; 93004</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>140486; 196396</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>147478; 192328</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>163251; 213863</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>104889; 147153</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>287110; 674783</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>250815; 309384</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>303465; 369391</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>174055; 227787</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>440866; 926737</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>98817</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>69324</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>103187</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>89772</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>152033</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>106589</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>142778</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>111238</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>250850</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>175913</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>245965</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>201010</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>81025; 119565</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>53572; 89123</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>86945; 125223</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>34516; 129638</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>128670; 175800</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>86683; 128222</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>122208; 165656</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>95392; 128999</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>226334; 283042</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>151726; 203789</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>216413; 275413</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>121667; 247353</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1571</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1238</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>560346</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>706558</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>564590</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>676924</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>824009</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>979472</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>761480</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1046486</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1384355</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1686030</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1326069</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1723411</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>521268; 607385</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>658662; 759263</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>518647; 608351</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>527034; 749197</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>774989; 873724</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>927222; 1038189</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>710011; 809947</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>871974; 1578998</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1317955; 1449133</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1615706; 1763105</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1257784; 1393367</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1504178; 2288957</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>